--- a/statistiche/RandomForestCounterfactuals/QY.xlsx
+++ b/statistiche/RandomForestCounterfactuals/QY.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -965,40 +965,40 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1196,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>0</v>
@@ -1400,22 +1400,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1516,16 +1516,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1580,40 +1580,40 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1650,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -1668,22 +1668,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1775,49 +1775,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
